--- a/P2_Performer/Results/03-29-2023/Sally Ming - Seattle, Washington, United States of America.xlsx
+++ b/P2_Performer/Results/03-29-2023/Sally Ming - Seattle, Washington, United States of America.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\P2_Performer\Results\03-29-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{322526B4-5AF1-45F5-B97F-BA3FC064B84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AE793B-39D3-4B4A-B64B-F5A054A34BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3108" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
